--- a/ind_hap_rab.xlsx
+++ b/ind_hap_rab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rozhi\OneDrive\Рабочий стол\Новая папка\раб\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4F8F6DB-1A18-4EBC-A6AE-67052426D5E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D355801E-FA2F-4CCF-ACB8-915267237CB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -345,117 +345,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Y3"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2000</v>
+      </c>
+      <c r="C1">
+        <v>2001</v>
+      </c>
+      <c r="D1">
+        <v>2002</v>
+      </c>
+      <c r="E1">
+        <v>2003</v>
+      </c>
+      <c r="F1">
+        <v>2004</v>
+      </c>
+      <c r="G1">
+        <v>2005</v>
+      </c>
+      <c r="H1">
+        <v>2006</v>
+      </c>
+      <c r="I1">
+        <v>2007</v>
+      </c>
+      <c r="J1">
+        <v>2008</v>
+      </c>
+      <c r="K1">
+        <v>2009</v>
+      </c>
+      <c r="L1">
+        <v>2010</v>
+      </c>
+      <c r="M1">
+        <v>2011</v>
+      </c>
+      <c r="N1">
+        <v>2012</v>
+      </c>
+      <c r="O1">
+        <v>2013</v>
+      </c>
+      <c r="P1">
+        <v>2014</v>
+      </c>
+      <c r="Q1">
+        <v>2015</v>
+      </c>
+      <c r="R1">
+        <v>2016</v>
+      </c>
+      <c r="S1">
+        <v>2017</v>
+      </c>
+      <c r="T1">
+        <v>2018</v>
+      </c>
+      <c r="U1">
+        <v>2019</v>
+      </c>
+      <c r="V1">
+        <v>2020</v>
+      </c>
+      <c r="W1">
+        <v>2021</v>
+      </c>
+      <c r="X1">
+        <v>2022</v>
+      </c>
+      <c r="Y1">
+        <v>2023</v>
+      </c>
+    </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>2000</v>
-      </c>
-      <c r="C2">
-        <v>2001</v>
-      </c>
-      <c r="D2">
-        <v>2002</v>
-      </c>
-      <c r="E2">
-        <v>2003</v>
-      </c>
-      <c r="F2">
-        <v>2004</v>
-      </c>
-      <c r="G2">
-        <v>2005</v>
-      </c>
-      <c r="H2">
-        <v>2006</v>
-      </c>
-      <c r="I2">
-        <v>2007</v>
-      </c>
-      <c r="J2">
-        <v>2008</v>
-      </c>
-      <c r="K2">
-        <v>2009</v>
-      </c>
-      <c r="L2">
-        <v>2010</v>
-      </c>
-      <c r="M2">
-        <v>2011</v>
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2012</v>
+        <v>31</v>
       </c>
       <c r="O2">
-        <v>2013</v>
+        <v>32</v>
       </c>
       <c r="P2">
-        <v>2014</v>
+        <v>24</v>
       </c>
       <c r="Q2">
-        <v>2015</v>
+        <v>59</v>
       </c>
       <c r="R2">
-        <v>2016</v>
+        <v>50</v>
       </c>
       <c r="S2">
-        <v>2017</v>
-      </c>
-      <c r="T2">
-        <v>2018</v>
+        <v>51</v>
       </c>
       <c r="U2">
-        <v>2019</v>
+        <v>24</v>
       </c>
       <c r="V2">
-        <v>2020</v>
+        <v>19</v>
       </c>
       <c r="W2">
-        <v>2021</v>
-      </c>
-      <c r="X2">
-        <v>2022</v>
-      </c>
-      <c r="Y2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>31</v>
-      </c>
-      <c r="O3">
-        <v>32</v>
-      </c>
-      <c r="P3">
-        <v>24</v>
-      </c>
-      <c r="Q3">
-        <v>59</v>
-      </c>
-      <c r="R3">
-        <v>50</v>
-      </c>
-      <c r="S3">
-        <v>51</v>
-      </c>
-      <c r="U3">
-        <v>24</v>
-      </c>
-      <c r="V3">
-        <v>19</v>
-      </c>
-      <c r="W3">
         <v>18</v>
       </c>
     </row>
